--- a/data/pca/factorExposure/factorExposure_2010-06-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-06-16.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01466949650022649</v>
+        <v>-0.01659767781171086</v>
       </c>
       <c r="C2">
-        <v>0.004490155847452491</v>
+        <v>0.0008540991077808759</v>
       </c>
       <c r="D2">
-        <v>0.01068744988736746</v>
+        <v>0.008522968182125239</v>
       </c>
       <c r="E2">
-        <v>-0.003127150839281838</v>
+        <v>0.002684236933710219</v>
       </c>
       <c r="F2">
-        <v>-0.03211486391008768</v>
+        <v>-0.0136813847605698</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.1227239364475685</v>
+        <v>-0.09568317646144189</v>
       </c>
       <c r="C4">
-        <v>0.1056496209459764</v>
+        <v>0.01778666442582059</v>
       </c>
       <c r="D4">
-        <v>-0.008051698266548611</v>
+        <v>0.08182756382593361</v>
       </c>
       <c r="E4">
-        <v>0.1670973342014114</v>
+        <v>-0.02733310033603927</v>
       </c>
       <c r="F4">
-        <v>-0.02169523429717021</v>
+        <v>0.03932689067322894</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1290705237603685</v>
+        <v>-0.1520557677808928</v>
       </c>
       <c r="C6">
-        <v>0.0581699845731013</v>
+        <v>0.02442855946935584</v>
       </c>
       <c r="D6">
-        <v>-0.009332941751597261</v>
+        <v>-0.02439612725787906</v>
       </c>
       <c r="E6">
-        <v>0.04200514347498152</v>
+        <v>-0.01419222301307314</v>
       </c>
       <c r="F6">
-        <v>0.05131106537061567</v>
+        <v>0.03928331911618236</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.07548731466897249</v>
+        <v>-0.06197343459291105</v>
       </c>
       <c r="C7">
-        <v>0.08146415241797128</v>
+        <v>0.0003087822889758788</v>
       </c>
       <c r="D7">
-        <v>0.01151600778313311</v>
+        <v>0.05156783272779722</v>
       </c>
       <c r="E7">
-        <v>0.01495378225300916</v>
+        <v>-0.01369817444840939</v>
       </c>
       <c r="F7">
-        <v>0.000704685803747984</v>
+        <v>0.0585483529134378</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.04289879962522289</v>
+        <v>-0.05975108245082177</v>
       </c>
       <c r="C8">
-        <v>0.00779200013283749</v>
+        <v>-0.01250718344345821</v>
       </c>
       <c r="D8">
-        <v>0.005345401054842784</v>
+        <v>0.027058260264184</v>
       </c>
       <c r="E8">
-        <v>0.1058467460447547</v>
+        <v>-0.01186757194727657</v>
       </c>
       <c r="F8">
-        <v>-0.03052290100226082</v>
+        <v>-0.02168323794422117</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.087336259153951</v>
+        <v>-0.07287867244886469</v>
       </c>
       <c r="C9">
-        <v>0.08361862099518816</v>
+        <v>0.01416475241588194</v>
       </c>
       <c r="D9">
-        <v>-0.02385355072959883</v>
+        <v>0.0799230130106775</v>
       </c>
       <c r="E9">
-        <v>0.1431091506947365</v>
+        <v>-0.02127557581815746</v>
       </c>
       <c r="F9">
-        <v>-0.01959358948145284</v>
+        <v>0.06206399784132879</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.1375223810591777</v>
+        <v>-0.09237498872975676</v>
       </c>
       <c r="C10">
-        <v>-0.1704288883915896</v>
+        <v>0.01396951641112329</v>
       </c>
       <c r="D10">
-        <v>0.006909085962531463</v>
+        <v>-0.173291545846838</v>
       </c>
       <c r="E10">
-        <v>-0.03211549061856791</v>
+        <v>0.0361864462261481</v>
       </c>
       <c r="F10">
-        <v>0.008705062347488539</v>
+        <v>-0.04951944108606484</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.06785055865877485</v>
+        <v>-0.08861168026177733</v>
       </c>
       <c r="C11">
-        <v>0.06568413367098673</v>
+        <v>0.01342329509104215</v>
       </c>
       <c r="D11">
-        <v>-0.04366762634795086</v>
+        <v>0.1105032228803321</v>
       </c>
       <c r="E11">
-        <v>0.1101174088379126</v>
+        <v>-0.04245219634696513</v>
       </c>
       <c r="F11">
-        <v>-0.02448531524962697</v>
+        <v>0.02773229799401949</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.07153319534298332</v>
+        <v>-0.09348832040601192</v>
       </c>
       <c r="C12">
-        <v>0.07188431749052746</v>
+        <v>0.01145355988507595</v>
       </c>
       <c r="D12">
-        <v>-0.05341863787341692</v>
+        <v>0.1169555115235983</v>
       </c>
       <c r="E12">
-        <v>0.11453216332435</v>
+        <v>-0.03998468039976617</v>
       </c>
       <c r="F12">
-        <v>0.02269965717187407</v>
+        <v>0.03034286859522312</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.03688342608822446</v>
+        <v>-0.04405678131434041</v>
       </c>
       <c r="C13">
-        <v>0.03793029140338845</v>
+        <v>0.004780884073671403</v>
       </c>
       <c r="D13">
-        <v>0.02164562894707011</v>
+        <v>0.0442643938256936</v>
       </c>
       <c r="E13">
-        <v>0.03566978744645106</v>
+        <v>0.0145660977305604</v>
       </c>
       <c r="F13">
-        <v>-0.004298873915124892</v>
+        <v>0.0202270017785521</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.0376379885372593</v>
+        <v>-0.02212537388005135</v>
       </c>
       <c r="C14">
-        <v>0.03738099261816024</v>
+        <v>0.01514827085991249</v>
       </c>
       <c r="D14">
-        <v>-0.01701247824753313</v>
+        <v>0.0296954110400145</v>
       </c>
       <c r="E14">
-        <v>0.06087529412395297</v>
+        <v>-0.01507574163503157</v>
       </c>
       <c r="F14">
-        <v>0.006833666203962239</v>
+        <v>0.02829464355610518</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.02251487092833135</v>
+        <v>-0.03256580861225264</v>
       </c>
       <c r="C15">
-        <v>0.01664476027410184</v>
+        <v>0.006079722230207766</v>
       </c>
       <c r="D15">
-        <v>0.06800428562624194</v>
+        <v>0.04205341590397373</v>
       </c>
       <c r="E15">
-        <v>0.01821615926336106</v>
+        <v>-0.007136580595149497</v>
       </c>
       <c r="F15">
-        <v>-0.02445718606751258</v>
+        <v>0.03483362593366546</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07912589423018085</v>
+        <v>-0.07548978011105632</v>
       </c>
       <c r="C16">
-        <v>0.07938676373635935</v>
+        <v>0.005256244261669291</v>
       </c>
       <c r="D16">
-        <v>-0.04022097990241499</v>
+        <v>0.114554591912183</v>
       </c>
       <c r="E16">
-        <v>0.1033260825323948</v>
+        <v>-0.05749516158513983</v>
       </c>
       <c r="F16">
-        <v>0.009705584020269498</v>
+        <v>0.03635618712502179</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.02007911824060098</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.003939019101074808</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.0228748605177038</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.01110805530308327</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>-0.02899458114806277</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.047200733123629</v>
+        <v>-0.06173957666629513</v>
       </c>
       <c r="C20">
-        <v>0.02652833779895064</v>
+        <v>0.00290363577748827</v>
       </c>
       <c r="D20">
-        <v>0.03262373503911478</v>
+        <v>0.06847997027779899</v>
       </c>
       <c r="E20">
-        <v>0.07631588111201798</v>
+        <v>-0.05070757651001155</v>
       </c>
       <c r="F20">
-        <v>0.01623507333740107</v>
+        <v>0.03258269227088555</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.03409040691132277</v>
+        <v>-0.0386120653416771</v>
       </c>
       <c r="C21">
-        <v>0.02178853614298296</v>
+        <v>0.007962903603965104</v>
       </c>
       <c r="D21">
-        <v>-0.02131700187118105</v>
+        <v>0.03364747634152268</v>
       </c>
       <c r="E21">
-        <v>0.07521396560695076</v>
+        <v>0.01295213747478343</v>
       </c>
       <c r="F21">
-        <v>-0.01698616144929277</v>
+        <v>-0.01855049239905177</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.05573224964913139</v>
+        <v>-0.04240921502890757</v>
       </c>
       <c r="C22">
-        <v>0.0194600758092878</v>
+        <v>0.001032635209774833</v>
       </c>
       <c r="D22">
-        <v>0.6485243105478358</v>
+        <v>-0.0007271632979296437</v>
       </c>
       <c r="E22">
-        <v>-0.00217439484328912</v>
+        <v>-0.03155838030976932</v>
       </c>
       <c r="F22">
-        <v>0.1148464307233412</v>
+        <v>-0.02259955554950073</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.05670451524263396</v>
+        <v>-0.04250234087309587</v>
       </c>
       <c r="C23">
-        <v>0.02131706269724257</v>
+        <v>0.001067043732666734</v>
       </c>
       <c r="D23">
-        <v>0.6507677943053086</v>
+        <v>-0.000515980421232191</v>
       </c>
       <c r="E23">
-        <v>0.003092901051711102</v>
+        <v>-0.03198224398705177</v>
       </c>
       <c r="F23">
-        <v>0.1152161524254458</v>
+        <v>-0.02205301559781097</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.07783045453663688</v>
+        <v>-0.08199338299285278</v>
       </c>
       <c r="C24">
-        <v>0.08068525608922411</v>
+        <v>0.005400560383920503</v>
       </c>
       <c r="D24">
-        <v>-0.03198404573165337</v>
+        <v>0.1150368540460007</v>
       </c>
       <c r="E24">
-        <v>0.1057103946709339</v>
+        <v>-0.04614061074592504</v>
       </c>
       <c r="F24">
-        <v>-0.005239360840180227</v>
+        <v>0.02838732788125499</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.07693535928786009</v>
+        <v>-0.08599052637568204</v>
       </c>
       <c r="C25">
-        <v>0.06041614862620048</v>
+        <v>0.007318365167156356</v>
       </c>
       <c r="D25">
-        <v>-0.05824619261199872</v>
+        <v>0.1010752308509433</v>
       </c>
       <c r="E25">
-        <v>0.1079175055329532</v>
+        <v>-0.02785726446938865</v>
       </c>
       <c r="F25">
-        <v>-0.004061124348282394</v>
+        <v>0.03815580171371033</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.04237819332709209</v>
+        <v>-0.05648987599409169</v>
       </c>
       <c r="C26">
-        <v>0.0102036045597269</v>
+        <v>0.01583543012030346</v>
       </c>
       <c r="D26">
-        <v>0.01467738900191162</v>
+        <v>0.0315449710881082</v>
       </c>
       <c r="E26">
-        <v>0.07056457737000595</v>
+        <v>-0.02286647463659555</v>
       </c>
       <c r="F26">
-        <v>0.07142793186731597</v>
+        <v>-0.00117997814170842</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1630822134802568</v>
+        <v>-0.1384740781356089</v>
       </c>
       <c r="C28">
-        <v>-0.2679220992970082</v>
+        <v>0.0108399423033017</v>
       </c>
       <c r="D28">
-        <v>-0.01170360749583331</v>
+        <v>-0.2721057328208468</v>
       </c>
       <c r="E28">
-        <v>0.03465369084363235</v>
+        <v>0.06744546719148614</v>
       </c>
       <c r="F28">
-        <v>0.01183701977293903</v>
+        <v>0.04494607219666094</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.03673473728423444</v>
+        <v>-0.02728714622637389</v>
       </c>
       <c r="C29">
-        <v>0.03539747989856426</v>
+        <v>0.009331950057302725</v>
       </c>
       <c r="D29">
-        <v>-0.01674796647580507</v>
+        <v>0.02886002078960537</v>
       </c>
       <c r="E29">
-        <v>0.06062776925870876</v>
+        <v>-0.007824329392957671</v>
       </c>
       <c r="F29">
-        <v>-0.001964665895257458</v>
+        <v>-0.004853094302685847</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.08316470742829238</v>
+        <v>-0.06472808185567436</v>
       </c>
       <c r="C30">
-        <v>0.07019002657081577</v>
+        <v>0.007214416301270126</v>
       </c>
       <c r="D30">
-        <v>-0.01888748051680001</v>
+        <v>0.07714555961529664</v>
       </c>
       <c r="E30">
-        <v>0.2110933585722904</v>
+        <v>-0.0219855450950937</v>
       </c>
       <c r="F30">
-        <v>0.1429372400846559</v>
+        <v>0.1240789420086971</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.02736721740023425</v>
+        <v>-0.04894710452567583</v>
       </c>
       <c r="C31">
-        <v>0.05974715006862972</v>
+        <v>0.01532179884655908</v>
       </c>
       <c r="D31">
-        <v>0.002367919717518313</v>
+        <v>0.02873957206673386</v>
       </c>
       <c r="E31">
-        <v>0.04257115563009958</v>
+        <v>-0.02636438937163789</v>
       </c>
       <c r="F31">
-        <v>-0.008219869607536356</v>
+        <v>-0.002672878125498609</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04949960884810003</v>
+        <v>-0.04944734876787275</v>
       </c>
       <c r="C32">
-        <v>0.01415157712404915</v>
+        <v>0.001064816850104214</v>
       </c>
       <c r="D32">
-        <v>-0.05178884319640584</v>
+        <v>0.0269155852960471</v>
       </c>
       <c r="E32">
-        <v>0.04508299650435753</v>
+        <v>-0.02516880104192045</v>
       </c>
       <c r="F32">
-        <v>-0.07337012864614707</v>
+        <v>0.004716783862975787</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09458768275054781</v>
+        <v>-0.0920370001074321</v>
       </c>
       <c r="C33">
-        <v>0.07870879090352917</v>
+        <v>0.01049487902855824</v>
       </c>
       <c r="D33">
-        <v>-0.02606091829588509</v>
+        <v>0.09018862510797129</v>
       </c>
       <c r="E33">
-        <v>0.05584348784926253</v>
+        <v>-0.04409683696066634</v>
       </c>
       <c r="F33">
-        <v>0.0280535667968192</v>
+        <v>0.0444750957204992</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06699902284022471</v>
+        <v>-0.06919139642004754</v>
       </c>
       <c r="C34">
-        <v>0.06252151292749272</v>
+        <v>0.01325368108266663</v>
       </c>
       <c r="D34">
-        <v>-0.0407525106123354</v>
+        <v>0.0947442944864625</v>
       </c>
       <c r="E34">
-        <v>0.1065344897697603</v>
+        <v>-0.02872432456945089</v>
       </c>
       <c r="F34">
-        <v>-0.008725341618713878</v>
+        <v>0.05385847846859447</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.01674964979074304</v>
+        <v>-0.02440099786250011</v>
       </c>
       <c r="C35">
-        <v>0.01334554917602613</v>
+        <v>0.002659571182046193</v>
       </c>
       <c r="D35">
-        <v>0.0002712463996959051</v>
+        <v>0.009919394429522787</v>
       </c>
       <c r="E35">
-        <v>0.03533803876816796</v>
+        <v>-0.01111458817493371</v>
       </c>
       <c r="F35">
-        <v>-0.0003879050290843135</v>
+        <v>0.01212640133596167</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02612458760274676</v>
+        <v>-0.02504678125607153</v>
       </c>
       <c r="C36">
-        <v>0.01774076760298427</v>
+        <v>0.007399495338253632</v>
       </c>
       <c r="D36">
-        <v>0.01122394432361499</v>
+        <v>0.03790776955979216</v>
       </c>
       <c r="E36">
-        <v>0.08203395773863446</v>
+        <v>-0.01481706486285785</v>
       </c>
       <c r="F36">
-        <v>0.02936826282958635</v>
+        <v>0.01078524825626952</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.02161375205832787</v>
+        <v>-0.002869000065978768</v>
       </c>
       <c r="C38">
-        <v>0.050430943079424</v>
+        <v>0.0005284046912012413</v>
       </c>
       <c r="D38">
-        <v>0.0231369054287687</v>
+        <v>0.003038841174834724</v>
       </c>
       <c r="E38">
-        <v>-0.1182935589405593</v>
+        <v>-0.003802604417832774</v>
       </c>
       <c r="F38">
-        <v>0.07540593008964751</v>
+        <v>-0.002859566529137288</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.09910006371695923</v>
+        <v>-0.1112754473190558</v>
       </c>
       <c r="C39">
-        <v>0.09266003568367932</v>
+        <v>0.01924766366415495</v>
       </c>
       <c r="D39">
-        <v>-0.1313834009826961</v>
+        <v>0.1462895636396577</v>
       </c>
       <c r="E39">
-        <v>0.1451502782921198</v>
+        <v>-0.05192687924472969</v>
       </c>
       <c r="F39">
-        <v>0.1294371460198796</v>
+        <v>0.04200419768877429</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.02860701509722001</v>
+        <v>-0.03752665687237565</v>
       </c>
       <c r="C40">
-        <v>0.06759261547098573</v>
+        <v>0.007712700671757658</v>
       </c>
       <c r="D40">
-        <v>0.0275193079315083</v>
+        <v>0.02920911252452151</v>
       </c>
       <c r="E40">
-        <v>0.04862849557789239</v>
+        <v>-0.001351808899736048</v>
       </c>
       <c r="F40">
-        <v>-0.08608818320643348</v>
+        <v>-0.01817916794909315</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.03556260704680436</v>
+        <v>-0.0265561398816366</v>
       </c>
       <c r="C41">
-        <v>0.02594115686231084</v>
+        <v>0.006792807356925501</v>
       </c>
       <c r="D41">
-        <v>-0.01795870861073256</v>
+        <v>0.01104039290848311</v>
       </c>
       <c r="E41">
-        <v>0.00553813608474307</v>
+        <v>-0.01123466878718203</v>
       </c>
       <c r="F41">
-        <v>0.02296869166466426</v>
+        <v>-0.01267048504490236</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04779315488802728</v>
+        <v>-0.04295576394437711</v>
       </c>
       <c r="C43">
-        <v>0.04724004556078164</v>
+        <v>0.007222880731529225</v>
       </c>
       <c r="D43">
-        <v>0.008312776741316055</v>
+        <v>0.0215019753215323</v>
       </c>
       <c r="E43">
-        <v>0.01516759940000038</v>
+        <v>-0.02595787000224616</v>
       </c>
       <c r="F43">
-        <v>0.06059261027781702</v>
+        <v>-0.01146963935804139</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.09542876947366642</v>
+        <v>-0.07352656675801612</v>
       </c>
       <c r="C44">
-        <v>0.09489417431431499</v>
+        <v>0.02313494470629679</v>
       </c>
       <c r="D44">
-        <v>0.08193598821824417</v>
+        <v>0.09951791836784257</v>
       </c>
       <c r="E44">
-        <v>0.1173014624962566</v>
+        <v>-0.06790659281495182</v>
       </c>
       <c r="F44">
-        <v>-0.05525354464464081</v>
+        <v>0.1824497788302044</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.03866445387272392</v>
+        <v>-0.02367537604642478</v>
       </c>
       <c r="C46">
-        <v>0.0382257023157575</v>
+        <v>0.004344764858732283</v>
       </c>
       <c r="D46">
-        <v>0.0418491909353301</v>
+        <v>0.01200596832590112</v>
       </c>
       <c r="E46">
-        <v>0.04781854633125768</v>
+        <v>-0.02147848172685201</v>
       </c>
       <c r="F46">
-        <v>-0.03005303446663056</v>
+        <v>-0.001253314123532989</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05319332917273142</v>
+        <v>-0.05306566861081746</v>
       </c>
       <c r="C47">
-        <v>0.0488407768266503</v>
+        <v>0.003587369376183439</v>
       </c>
       <c r="D47">
-        <v>-0.001937454789832294</v>
+        <v>0.0122573775948104</v>
       </c>
       <c r="E47">
-        <v>0.015620521154754</v>
+        <v>-0.02255389642700395</v>
       </c>
       <c r="F47">
-        <v>0.02068077620030348</v>
+        <v>-0.04751384578862524</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04513401057374897</v>
+        <v>-0.04831082777675134</v>
       </c>
       <c r="C48">
-        <v>0.01943400257910593</v>
+        <v>0.003517233497102708</v>
       </c>
       <c r="D48">
-        <v>-0.01320301854620456</v>
+        <v>0.04486199243444398</v>
       </c>
       <c r="E48">
-        <v>0.09458387315348814</v>
+        <v>0.00856322493613321</v>
       </c>
       <c r="F48">
-        <v>-0.02910139928422793</v>
+        <v>0.01766538834802723</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2301280798403649</v>
+        <v>-0.2049293269114187</v>
       </c>
       <c r="C49">
-        <v>0.03714766507247604</v>
+        <v>0.01666229061876011</v>
       </c>
       <c r="D49">
-        <v>-0.03030679943163706</v>
+        <v>-0.00883791302371994</v>
       </c>
       <c r="E49">
-        <v>-0.3071859706945856</v>
+        <v>-0.04216731983734746</v>
       </c>
       <c r="F49">
-        <v>-0.03201692455080195</v>
+        <v>0.03327183201387066</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.03819428077715539</v>
+        <v>-0.0486701431589191</v>
       </c>
       <c r="C50">
-        <v>0.04666805369422165</v>
+        <v>0.01133360953030615</v>
       </c>
       <c r="D50">
-        <v>-0.01446462442149914</v>
+        <v>0.02625656646541401</v>
       </c>
       <c r="E50">
-        <v>0.05900811907434747</v>
+        <v>-0.0285986251849164</v>
       </c>
       <c r="F50">
-        <v>0.03693521303036901</v>
+        <v>0.006558026144200659</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.02762273467577345</v>
+        <v>-0.003334597297742486</v>
       </c>
       <c r="C51">
-        <v>0.0008947415811339895</v>
+        <v>0.0007992344173354697</v>
       </c>
       <c r="D51">
-        <v>0.0007751172467237803</v>
+        <v>-0.001718829204826405</v>
       </c>
       <c r="E51">
-        <v>-0.04824531684873744</v>
+        <v>-0.001264097910084552</v>
       </c>
       <c r="F51">
-        <v>-0.0201562383919489</v>
+        <v>0.004667672571612033</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.03693512962067125</v>
+        <v>-0.142082476770617</v>
       </c>
       <c r="C52">
-        <v>0.01636995805723069</v>
+        <v>0.01278913243691261</v>
       </c>
       <c r="D52">
-        <v>-0.02708031848217227</v>
+        <v>0.04943211973039292</v>
       </c>
       <c r="E52">
-        <v>0.006452686986679331</v>
+        <v>-0.01803266875229577</v>
       </c>
       <c r="F52">
-        <v>0.02747790264501624</v>
+        <v>0.03075533726771017</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1471793386547576</v>
+        <v>-0.172777285179907</v>
       </c>
       <c r="C53">
-        <v>0.06020537424423611</v>
+        <v>0.01558095195388604</v>
       </c>
       <c r="D53">
-        <v>0.01254397651464644</v>
+        <v>0.0166928572650392</v>
       </c>
       <c r="E53">
-        <v>-0.09046807664708309</v>
+        <v>-0.03825360468857716</v>
       </c>
       <c r="F53">
-        <v>0.08167137254249908</v>
+        <v>0.05856145179720888</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.06074557695878267</v>
+        <v>-0.02349738914810155</v>
       </c>
       <c r="C54">
-        <v>0.0475450776435503</v>
+        <v>0.01303494362121648</v>
       </c>
       <c r="D54">
-        <v>5.861057718509543e-05</v>
+        <v>0.03164258459945552</v>
       </c>
       <c r="E54">
-        <v>0.1402497931968105</v>
+        <v>-0.01314517084558387</v>
       </c>
       <c r="F54">
-        <v>-0.02283486464394836</v>
+        <v>-0.0009005956981227103</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.082950388099874</v>
+        <v>-0.1143348456354012</v>
       </c>
       <c r="C55">
-        <v>0.05566530470665219</v>
+        <v>0.01450961418749762</v>
       </c>
       <c r="D55">
-        <v>-0.03851602083630157</v>
+        <v>0.01425832969124023</v>
       </c>
       <c r="E55">
-        <v>-0.02231032994530201</v>
+        <v>-0.03073602145812893</v>
       </c>
       <c r="F55">
-        <v>0.03112739629755299</v>
+        <v>0.04601307584775926</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1410098132736794</v>
+        <v>-0.1774380626905469</v>
       </c>
       <c r="C56">
-        <v>0.09975512916278992</v>
+        <v>0.01303991730918779</v>
       </c>
       <c r="D56">
-        <v>-0.02267968182543351</v>
+        <v>0.01073189347175297</v>
       </c>
       <c r="E56">
-        <v>-0.05469489191496722</v>
+        <v>-0.04384750886564023</v>
       </c>
       <c r="F56">
-        <v>0.05534081357540244</v>
+        <v>0.02871889505461806</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04235674808390262</v>
+        <v>-0.04729036551756347</v>
       </c>
       <c r="C58">
-        <v>0.02814434049013864</v>
+        <v>0.003404267447843773</v>
       </c>
       <c r="D58">
-        <v>0.03883963612394792</v>
+        <v>0.06190237310220399</v>
       </c>
       <c r="E58">
-        <v>0.04169744801109389</v>
+        <v>-0.01559116049699671</v>
       </c>
       <c r="F58">
-        <v>-0.005410275924599942</v>
+        <v>-0.04399654098464924</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.2166283444379309</v>
+        <v>-0.1693594453330179</v>
       </c>
       <c r="C59">
-        <v>-0.2286446297284679</v>
+        <v>0.01258182782860628</v>
       </c>
       <c r="D59">
-        <v>-0.04913782468782513</v>
+        <v>-0.2312236415913609</v>
       </c>
       <c r="E59">
-        <v>-0.00396758768742014</v>
+        <v>0.04837057886164105</v>
       </c>
       <c r="F59">
-        <v>-0.04859108831379323</v>
+        <v>-0.02999797374934896</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2259310833361392</v>
+        <v>-0.2395728375283614</v>
       </c>
       <c r="C60">
-        <v>0.1341334120699621</v>
+        <v>-0.00439908992123508</v>
       </c>
       <c r="D60">
-        <v>-0.07356430998059835</v>
+        <v>0.05110938316260364</v>
       </c>
       <c r="E60">
-        <v>-0.1274720496236589</v>
+        <v>-0.01240406911803868</v>
       </c>
       <c r="F60">
-        <v>-0.03152506449854807</v>
+        <v>-0.0449237833296454</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.1003650329786311</v>
+        <v>-0.08625426386576619</v>
       </c>
       <c r="C61">
-        <v>0.08261698703108619</v>
+        <v>0.01501878384653211</v>
       </c>
       <c r="D61">
-        <v>-0.07348229992653919</v>
+        <v>0.1079841764253756</v>
       </c>
       <c r="E61">
-        <v>0.1421536797083659</v>
+        <v>-0.03463199402439617</v>
       </c>
       <c r="F61">
-        <v>0.04792686901829937</v>
+        <v>0.02502103473623316</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1315312762964453</v>
+        <v>-0.1690227203906635</v>
       </c>
       <c r="C62">
-        <v>0.0702086940097616</v>
+        <v>0.01694923331938856</v>
       </c>
       <c r="D62">
-        <v>0.0005047627805667802</v>
+        <v>0.01298018966474125</v>
       </c>
       <c r="E62">
-        <v>-0.08324043667883368</v>
+        <v>-0.03935173769077042</v>
       </c>
       <c r="F62">
-        <v>0.04728005170218418</v>
+        <v>0.01040064380681008</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04955305810237835</v>
+        <v>-0.04264376727462268</v>
       </c>
       <c r="C63">
-        <v>0.02689925305860917</v>
+        <v>0.004346397030346749</v>
       </c>
       <c r="D63">
-        <v>-0.009392550349336524</v>
+        <v>0.04574659493105082</v>
       </c>
       <c r="E63">
-        <v>0.0799571215595354</v>
+        <v>-0.01506009856640035</v>
       </c>
       <c r="F63">
-        <v>0.02339890334409286</v>
+        <v>0.01245656246662825</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.09278283444838561</v>
+        <v>-0.1118637264009805</v>
       </c>
       <c r="C64">
-        <v>0.0567918944663854</v>
+        <v>0.01202191390353743</v>
       </c>
       <c r="D64">
-        <v>0.001738438028821623</v>
+        <v>0.03908242927289165</v>
       </c>
       <c r="E64">
-        <v>0.06202815588239523</v>
+        <v>-0.01925096162822784</v>
       </c>
       <c r="F64">
-        <v>0.03119440459109697</v>
+        <v>0.01737450138793617</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.118169353239546</v>
+        <v>-0.1436854030533014</v>
       </c>
       <c r="C65">
-        <v>0.03349921381946085</v>
+        <v>0.03073018197405173</v>
       </c>
       <c r="D65">
-        <v>-0.02342680314438412</v>
+        <v>-0.04680912896554176</v>
       </c>
       <c r="E65">
-        <v>0.05001097246756213</v>
+        <v>-0.002694231541523014</v>
       </c>
       <c r="F65">
-        <v>0.09601765065019767</v>
+        <v>0.04259696010732224</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1097246022999342</v>
+        <v>-0.1334450798656021</v>
       </c>
       <c r="C66">
-        <v>0.1193313050166907</v>
+        <v>0.01678672234530516</v>
       </c>
       <c r="D66">
-        <v>-0.1169476353476858</v>
+        <v>0.1336688334110464</v>
       </c>
       <c r="E66">
-        <v>0.1083369521773176</v>
+        <v>-0.06074977160662442</v>
       </c>
       <c r="F66">
-        <v>0.130904224885373</v>
+        <v>0.04595599828955519</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.07571512506703391</v>
+        <v>-0.06507167784647352</v>
       </c>
       <c r="C67">
-        <v>0.06266175278726839</v>
+        <v>0.004249525523932303</v>
       </c>
       <c r="D67">
-        <v>0.0314444667231202</v>
+        <v>0.05416239921334332</v>
       </c>
       <c r="E67">
-        <v>-0.1295666109143422</v>
+        <v>-0.02081559543825584</v>
       </c>
       <c r="F67">
-        <v>0.1017995286534905</v>
+        <v>-0.04296607686623382</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1361675541419438</v>
+        <v>-0.1115041180642711</v>
       </c>
       <c r="C68">
-        <v>-0.2619537723255863</v>
+        <v>0.02187247313050911</v>
       </c>
       <c r="D68">
-        <v>-0.02233195497173364</v>
+        <v>-0.2699117436894831</v>
       </c>
       <c r="E68">
-        <v>0.05231679744006455</v>
+        <v>0.08701109815095452</v>
       </c>
       <c r="F68">
-        <v>0.01808740508003018</v>
+        <v>0.04997848244752168</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.04591921424593595</v>
+        <v>-0.04058845110579782</v>
       </c>
       <c r="C69">
-        <v>0.01995290643273681</v>
+        <v>0.001344451601258356</v>
       </c>
       <c r="D69">
-        <v>0.003771681066256556</v>
+        <v>0.008826160170530417</v>
       </c>
       <c r="E69">
-        <v>0.006029131935334586</v>
+        <v>-0.02606808351000883</v>
       </c>
       <c r="F69">
-        <v>0.03610018339854628</v>
+        <v>-0.01726511332901873</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.04851080578893163</v>
+        <v>-0.06469868239901298</v>
       </c>
       <c r="C70">
-        <v>0.06895940807321291</v>
+        <v>-0.02678022031103337</v>
       </c>
       <c r="D70">
-        <v>-0.02601107704980899</v>
+        <v>0.02444955868273132</v>
       </c>
       <c r="E70">
-        <v>0.03177123682755472</v>
+        <v>0.04745262800020789</v>
       </c>
       <c r="F70">
-        <v>0.01092768908975485</v>
+        <v>-0.3458455897589691</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1547200443542087</v>
+        <v>-0.1303954713150922</v>
       </c>
       <c r="C71">
-        <v>-0.2759154771844178</v>
+        <v>0.02580733073621591</v>
       </c>
       <c r="D71">
-        <v>-0.01813035730172887</v>
+        <v>-0.2867029117771368</v>
       </c>
       <c r="E71">
-        <v>0.0587622992599128</v>
+        <v>0.09488887410736131</v>
       </c>
       <c r="F71">
-        <v>0.04594403295012641</v>
+        <v>0.05255016424614442</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1277270064330945</v>
+        <v>-0.1381025458781377</v>
       </c>
       <c r="C72">
-        <v>0.01767945197505864</v>
+        <v>0.02376498887194957</v>
       </c>
       <c r="D72">
-        <v>-0.003880722650093794</v>
+        <v>0.006473827466751745</v>
       </c>
       <c r="E72">
-        <v>0.0133525677509147</v>
+        <v>-0.0430097540769948</v>
       </c>
       <c r="F72">
-        <v>0.06089798908911</v>
+        <v>0.02343477764396513</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2178624503433187</v>
+        <v>-0.2079037162051395</v>
       </c>
       <c r="C73">
-        <v>0.1022286286771422</v>
+        <v>0.01123708362350478</v>
       </c>
       <c r="D73">
-        <v>-0.1208416671983749</v>
+        <v>0.01867957723090598</v>
       </c>
       <c r="E73">
-        <v>-0.5259911139934678</v>
+        <v>-0.06961169325930426</v>
       </c>
       <c r="F73">
-        <v>0.01074434011480221</v>
+        <v>0.02448002322272505</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09207778682957099</v>
+        <v>-0.09375938405860379</v>
       </c>
       <c r="C74">
-        <v>0.0855808271549364</v>
+        <v>0.01184549308523053</v>
       </c>
       <c r="D74">
-        <v>-0.005775814432798525</v>
+        <v>0.02515935555485735</v>
       </c>
       <c r="E74">
-        <v>-0.06675327029631717</v>
+        <v>-0.05081279808426755</v>
       </c>
       <c r="F74">
-        <v>0.09462218571562798</v>
+        <v>0.03954606342152713</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.09266439197668222</v>
+        <v>-0.1301662959911838</v>
       </c>
       <c r="C75">
-        <v>0.06926860030157841</v>
+        <v>0.02628379626408103</v>
       </c>
       <c r="D75">
-        <v>-0.005014397761919495</v>
+        <v>0.03444128943433866</v>
       </c>
       <c r="E75">
-        <v>-0.01136229172589258</v>
+        <v>-0.06118425007495419</v>
       </c>
       <c r="F75">
-        <v>0.01007376381263587</v>
+        <v>0.00833352688819361</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.0603387230642054</v>
+        <v>-0.007601786893611065</v>
       </c>
       <c r="C76">
-        <v>0.06922264480407421</v>
+        <v>0.001697365789404613</v>
       </c>
       <c r="D76">
-        <v>0.003217338370651211</v>
+        <v>0.003055086938490762</v>
       </c>
       <c r="E76">
-        <v>-0.05792130193633967</v>
+        <v>-0.007726509002671496</v>
       </c>
       <c r="F76">
-        <v>0.01287984080194249</v>
+        <v>0.004125577544498814</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.06528274404020688</v>
+        <v>-0.08083881551428897</v>
       </c>
       <c r="C77">
-        <v>0.028067851323712</v>
+        <v>0.01167231320898028</v>
       </c>
       <c r="D77">
-        <v>-0.03671081130893451</v>
+        <v>0.1035177244786866</v>
       </c>
       <c r="E77">
-        <v>0.1576789211588046</v>
+        <v>-0.03132171360894481</v>
       </c>
       <c r="F77">
-        <v>-0.01848291869910997</v>
+        <v>0.03695816619360106</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1672166731954548</v>
+        <v>-0.109910501530601</v>
       </c>
       <c r="C78">
-        <v>0.1665361405889774</v>
+        <v>0.04360714568686753</v>
       </c>
       <c r="D78">
-        <v>0.1600855388734976</v>
+        <v>0.1179964116984899</v>
       </c>
       <c r="E78">
-        <v>0.1590532677388953</v>
+        <v>-0.09040957364000089</v>
       </c>
       <c r="F78">
-        <v>-0.5978208031788664</v>
+        <v>0.07406533943355398</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1280976409533565</v>
+        <v>-0.1631376061785847</v>
       </c>
       <c r="C79">
-        <v>0.08541085277915314</v>
+        <v>0.0200955769094238</v>
       </c>
       <c r="D79">
-        <v>0.007864160198104575</v>
+        <v>0.02093710572184813</v>
       </c>
       <c r="E79">
-        <v>-0.02677777532677207</v>
+        <v>-0.04942840530835454</v>
       </c>
       <c r="F79">
-        <v>0.0390000607608041</v>
+        <v>0.004096883227517466</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.07232717796873016</v>
+        <v>-0.08062182371383433</v>
       </c>
       <c r="C80">
-        <v>0.05179271868829902</v>
+        <v>-0.0008297992729944717</v>
       </c>
       <c r="D80">
-        <v>-0.08421105970682968</v>
+        <v>0.0569357272341828</v>
       </c>
       <c r="E80">
-        <v>0.04582059077144037</v>
+        <v>-0.03109768250755843</v>
       </c>
       <c r="F80">
-        <v>0.0524187104777597</v>
+        <v>-0.01113175617248078</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1247722334190903</v>
+        <v>-0.1230738316684303</v>
       </c>
       <c r="C81">
-        <v>0.07733236890051191</v>
+        <v>0.03012829478028109</v>
       </c>
       <c r="D81">
-        <v>0.00880280706327298</v>
+        <v>0.0198001586100971</v>
       </c>
       <c r="E81">
-        <v>0.04819454386167432</v>
+        <v>-0.06161927174225626</v>
       </c>
       <c r="F81">
-        <v>0.03668206825077839</v>
+        <v>-0.003312553072024895</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1201161036302079</v>
+        <v>-0.1623493668787883</v>
       </c>
       <c r="C82">
-        <v>0.06461201835575163</v>
+        <v>0.0205059307263035</v>
       </c>
       <c r="D82">
-        <v>-0.009421078449433663</v>
+        <v>0.0177198503094969</v>
       </c>
       <c r="E82">
-        <v>-0.02811838220293648</v>
+        <v>-0.03735963339908766</v>
       </c>
       <c r="F82">
-        <v>0.09195135347349415</v>
+        <v>0.05397766106027084</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.0752102073465595</v>
+        <v>-0.06619795405387748</v>
       </c>
       <c r="C83">
-        <v>0.08956097538939604</v>
+        <v>0.004402874551823025</v>
       </c>
       <c r="D83">
-        <v>-0.0276885491856229</v>
+        <v>0.0481666502947056</v>
       </c>
       <c r="E83">
-        <v>-0.00498682148403126</v>
+        <v>-0.002869059186391645</v>
       </c>
       <c r="F83">
-        <v>0.09939347880603909</v>
+        <v>-0.03799725619807391</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.05199576424793524</v>
+        <v>-0.06124617838263412</v>
       </c>
       <c r="C84">
-        <v>-0.06398165314894975</v>
+        <v>0.01164819677739064</v>
       </c>
       <c r="D84">
-        <v>-0.03511143494843087</v>
+        <v>0.06070827355979268</v>
       </c>
       <c r="E84">
-        <v>0.0791089682416512</v>
+        <v>0.003147568396578564</v>
       </c>
       <c r="F84">
-        <v>-0.2365544368779822</v>
+        <v>0.0144083561703538</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1167684102338336</v>
+        <v>-0.1380760300724176</v>
       </c>
       <c r="C85">
-        <v>0.05575824676393329</v>
+        <v>0.02543369665851177</v>
       </c>
       <c r="D85">
-        <v>-0.005394174804346892</v>
+        <v>0.01683460680989485</v>
       </c>
       <c r="E85">
-        <v>-0.0340782388757072</v>
+        <v>-0.04127947180291169</v>
       </c>
       <c r="F85">
-        <v>0.06196818319281645</v>
+        <v>0.04052467682259279</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.08415590355003474</v>
+        <v>-0.0999165050717102</v>
       </c>
       <c r="C86">
-        <v>0.01816513387141034</v>
+        <v>-0.007081059438405735</v>
       </c>
       <c r="D86">
-        <v>0.02704997425502313</v>
+        <v>0.01708712226833846</v>
       </c>
       <c r="E86">
-        <v>-0.09439809767651131</v>
+        <v>-0.1254435656166704</v>
       </c>
       <c r="F86">
-        <v>-0.5525969512899829</v>
+        <v>-0.8259116990756378</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1230987575016109</v>
+        <v>-0.1002504316646227</v>
       </c>
       <c r="C87">
-        <v>0.07948923966721967</v>
+        <v>0.0257591622968043</v>
       </c>
       <c r="D87">
-        <v>0.01305100945058271</v>
+        <v>0.07360905266845016</v>
       </c>
       <c r="E87">
-        <v>0.06695460324277233</v>
+        <v>0.05193909815709556</v>
       </c>
       <c r="F87">
-        <v>-0.008653697173866883</v>
+        <v>0.09259158381100754</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.0573709591640823</v>
+        <v>-0.06213582150882013</v>
       </c>
       <c r="C88">
-        <v>0.05962238853981336</v>
+        <v>0.003311113404996841</v>
       </c>
       <c r="D88">
-        <v>-0.03874685452991956</v>
+        <v>0.05476630968929608</v>
       </c>
       <c r="E88">
-        <v>0.01827584529586831</v>
+        <v>-0.02671268975608661</v>
       </c>
       <c r="F88">
-        <v>0.0499838814209372</v>
+        <v>0.006152674858391876</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.2381111494567518</v>
+        <v>-0.1317072848601691</v>
       </c>
       <c r="C89">
-        <v>-0.3639401486529029</v>
+        <v>0.004812143169293031</v>
       </c>
       <c r="D89">
-        <v>0.04877936296389128</v>
+        <v>-0.27000272152334</v>
       </c>
       <c r="E89">
-        <v>-0.001879617034305335</v>
+        <v>0.09346875972869134</v>
       </c>
       <c r="F89">
-        <v>-0.0443558579547497</v>
+        <v>0.03451495929916766</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1622034714996296</v>
+        <v>-0.1425818806289301</v>
       </c>
       <c r="C90">
-        <v>-0.2559197092262215</v>
+        <v>0.02124737590148756</v>
       </c>
       <c r="D90">
-        <v>-0.01303591423467993</v>
+        <v>-0.2706635971810427</v>
       </c>
       <c r="E90">
-        <v>0.01301373972246119</v>
+        <v>0.1058467186684857</v>
       </c>
       <c r="F90">
-        <v>0.02582671530452957</v>
+        <v>0.03687858697742775</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.07366314850310837</v>
+        <v>-0.1168872007424595</v>
       </c>
       <c r="C91">
-        <v>0.06989447230893675</v>
+        <v>0.01622500473877658</v>
       </c>
       <c r="D91">
-        <v>-0.003983873045963111</v>
+        <v>-0.003900964605286592</v>
       </c>
       <c r="E91">
-        <v>-0.006782497426666182</v>
+        <v>-0.05924386890160721</v>
       </c>
       <c r="F91">
-        <v>-0.004222668038093853</v>
+        <v>-0.03105346906627147</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1842622910941318</v>
+        <v>-0.1449402026443355</v>
       </c>
       <c r="C92">
-        <v>-0.2898199967674541</v>
+        <v>0.01282581813989224</v>
       </c>
       <c r="D92">
-        <v>0.02489845285361343</v>
+        <v>-0.3049300354271062</v>
       </c>
       <c r="E92">
-        <v>0.08180778017391861</v>
+        <v>0.10264844978075</v>
       </c>
       <c r="F92">
-        <v>-0.01232100013089975</v>
+        <v>0.02840503634814566</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1780405839222416</v>
+        <v>-0.1467034029162654</v>
       </c>
       <c r="C93">
-        <v>-0.2983497660253114</v>
+        <v>0.01798170857367581</v>
       </c>
       <c r="D93">
-        <v>-0.04100796367237463</v>
+        <v>-0.276181174969252</v>
       </c>
       <c r="E93">
-        <v>0.03543703602120051</v>
+        <v>0.07304990142282772</v>
       </c>
       <c r="F93">
-        <v>0.008432954047635367</v>
+        <v>0.02766871548779681</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1175339471887476</v>
+        <v>-0.1337801178396821</v>
       </c>
       <c r="C94">
-        <v>0.08585117665190983</v>
+        <v>0.02370544883631006</v>
       </c>
       <c r="D94">
-        <v>0.01110036216986691</v>
+        <v>0.048134725811082</v>
       </c>
       <c r="E94">
-        <v>-0.03898531390394482</v>
+        <v>-0.06270306040205451</v>
       </c>
       <c r="F94">
-        <v>0.03953392314406493</v>
+        <v>0.02628470984518892</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1307971516786333</v>
+        <v>-0.1269205112764366</v>
       </c>
       <c r="C95">
-        <v>0.08316929076860752</v>
+        <v>0.006181322264843838</v>
       </c>
       <c r="D95">
-        <v>0.01056046360950214</v>
+        <v>0.08959505909683553</v>
       </c>
       <c r="E95">
-        <v>0.08013340443255507</v>
+        <v>-0.04238948235279548</v>
       </c>
       <c r="F95">
-        <v>-0.1266560743952549</v>
+        <v>-0.01040535935175091</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.00012438428240689</v>
+        <v>-0.09491102705341804</v>
       </c>
       <c r="C96">
-        <v>0.00041107180830954</v>
+        <v>-0.9894389239638071</v>
       </c>
       <c r="D96">
-        <v>-0.001042129023361474</v>
+        <v>-0.01618526559496503</v>
       </c>
       <c r="E96">
-        <v>-0.001634029634684594</v>
+        <v>-0.05988303759379084</v>
       </c>
       <c r="F96">
-        <v>-0.0008105283186676325</v>
+        <v>0.04999646803595637</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.123395152487588</v>
+        <v>-0.1879297000290801</v>
       </c>
       <c r="C97">
-        <v>-0.009893827246520381</v>
+        <v>-0.01241153772867334</v>
       </c>
       <c r="D97">
-        <v>0.04169405980499415</v>
+        <v>-0.01195785601067621</v>
       </c>
       <c r="E97">
-        <v>0.1972648501759559</v>
+        <v>-0.01693930945718839</v>
       </c>
       <c r="F97">
-        <v>0.2126735228938167</v>
+        <v>-0.1818952227671236</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.2471666833016082</v>
+        <v>-0.2063588602186871</v>
       </c>
       <c r="C98">
-        <v>0.1075795482929648</v>
+        <v>0.006951640727315011</v>
       </c>
       <c r="D98">
-        <v>0.08516971188893135</v>
+        <v>0.01422213779028273</v>
       </c>
       <c r="E98">
-        <v>-0.2662010287477216</v>
+        <v>0.09182579750368872</v>
       </c>
       <c r="F98">
-        <v>-0.02023959239333642</v>
+        <v>-0.1359581118913552</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.06792919813282584</v>
+        <v>-0.05781195041237108</v>
       </c>
       <c r="C99">
-        <v>0.0619656439599485</v>
+        <v>-0.002892977253446231</v>
       </c>
       <c r="D99">
-        <v>0.007449473286747507</v>
+        <v>0.03355906356545529</v>
       </c>
       <c r="E99">
-        <v>-0.04110488949366009</v>
+        <v>-0.02683531520965992</v>
       </c>
       <c r="F99">
-        <v>-0.004899277554035862</v>
+        <v>0.004122482364063321</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0.1244094208117933</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>-0.04756316883514973</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>0.3299607824325446</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.9031920103711323</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>-0.0496158167005662</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.03613133231005147</v>
+        <v>-0.02721986838174395</v>
       </c>
       <c r="C101">
-        <v>0.03533091592209859</v>
+        <v>0.009347017206486796</v>
       </c>
       <c r="D101">
-        <v>-0.01753278130309085</v>
+        <v>0.02859014635394194</v>
       </c>
       <c r="E101">
-        <v>0.05798951789412762</v>
+        <v>-0.007739190138654954</v>
       </c>
       <c r="F101">
-        <v>-0.003536317380410217</v>
+        <v>-0.007343486235838532</v>
       </c>
     </row>
     <row r="102" spans="1:6">
